--- a/数据整理/stocks/A股/上证主板/601975-招商南油.xlsx
+++ b/数据整理/stocks/A股/上证主板/601975-招商南油.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>515110</t>
+          <t>515150</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达中证国企一带一路ETF</t>
+          <t>富国中证国企一带一路ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>98.83</t>
+          <t>22.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3552</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>515150</t>
+          <t>515110</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国中证国企一带一路ETF</t>
+          <t>易方达中证国企一带一路ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>99.67</t>
+          <t>12.24</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1922</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>96.96</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.54</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0932</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
       </c>
     </row>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -622,25 +672,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>515110</t>
+          <t>515150</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达中证国企一带一路ETF</t>
+          <t>富国中证国企一带一路ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>99.12</t>
+          <t>14.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2096</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -650,25 +710,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>515150</t>
+          <t>515110</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国中证国企一带一路ETF</t>
+          <t>易方达中证国企一带一路ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>98.72</t>
+          <t>10.31</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1454</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601975-招商南油.xlsx
+++ b/数据整理/stocks/A股/上证主板/601975-招商南油.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -745,4 +746,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601975-招商南油.xlsx
+++ b/数据整理/stocks/A股/上证主板/601975-招商南油.xlsx
@@ -770,12 +770,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601975-招商南油.xlsx
+++ b/数据整理/stocks/A股/上证主板/601975-招商南油.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -754,7 +755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,17 +766,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -785,14 +806,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.36</v>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>70.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2041</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -801,13 +844,1145 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>014597</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>70.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6175</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5344</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014109</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2864</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1666</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001703</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1112</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519949</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>57.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007294</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>57.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011071</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华安悦一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002252</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>57.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014106</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>57.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001067</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华弘盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>23.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>69.23</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009232</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华安惠混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>23.35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014364</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000354</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长盛城镇化主题混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009634</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华安睿两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>21.46</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010564</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>民生加银瑞利混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23.27</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519969</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长信新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>56.75</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009635</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华安睿两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>21.46</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002161</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华万物互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004948</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鑫元鑫趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>30.81</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001380</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华弘盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>23.07</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015450</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>69.23</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009233</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华安惠混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>23.35</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007293</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>57.57</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011072</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华安悦一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004944</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鑫元鑫趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>30.81</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.64</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601975-招商南油.xlsx
+++ b/数据整理/stocks/A股/上证主板/601975-招商南油.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="D2" t="n">
-        <v>3.49</v>
+        <v>15.02</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
-        <v>0.36</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.64</v>
       </c>
     </row>
@@ -532,6 +549,3552 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012428</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9270</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013389</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏成长先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1355</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001852</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9198</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012429</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7416</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013627</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6507</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>180003</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华-道琼斯88指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5349</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014292</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实产业领先混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5245</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519909</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安安顺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4707</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4588</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合A/B</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4377</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010694</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3981</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013390</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏成长先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3788</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012073</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.74</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3406</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007207</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏常阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>72.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3320</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家科创主题灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3092</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010701</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2804</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010608</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>22.70</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2792</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2553</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010611</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2422</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014410</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏时代领航两年持有混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2369</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001581</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2362</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014109</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2038</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001280</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1997</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002269</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银华大数据灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1709</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013626</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1675</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010612</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1589</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1586</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012846</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>恒越蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1564</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005498</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银华积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1506</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001703</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1484</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>73.64</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1151</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>168002</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1119</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008445</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>融通产业趋势先锋股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009891</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>融通产业趋势臻选股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011175</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>29.92</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010702</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002326</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>银华聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002252</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合A/B</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014106</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>014411</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏时代领航两年持有混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000827</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数E</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010609</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006568</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国联安行业领先混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>77.29</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004099</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>前海开源沪港深景气行业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>64.89</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>519025</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>海富通领先成长混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007251</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>32.79</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007261</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>融通消费升级混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005186</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长安鑫兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007663</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>平安安享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007056</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>银华积极精选混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002282</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>平安安享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>014364</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>004608</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>48.69</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>000994</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001162</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001226</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中邮稳健添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011176</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>29.92</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>007294</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>57.23</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>012074</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华安均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>80.74</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>014293</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>嘉实产业领先混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>000826</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001830</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>融通跨界成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009671</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>平安恒泽混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>28.48</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002839</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华夏新锦程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>44.91</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005187</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>长安鑫兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010646</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>融通价值趋势混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>000995</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005067</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>000432</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中银优秀企业混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>007257</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>凯石沣混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>70.00</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011702</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>32.79</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009270</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009273</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>006458</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>77.33</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>万家科创主题灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009672</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>平安恒泽混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>28.48</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001638</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010564</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>民生加银瑞利混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>30.16</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>007258</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>凯石沣混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>70.00</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>005305</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>长信合利混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>35.34</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>004609</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>48.69</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>007293</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>57.23</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>64.89</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010647</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>融通价值趋势混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>006457</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>77.33</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>519949</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>57.23</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>005306</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>长信合利混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>35.34</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>014045</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>银华积极成长混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>016289</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>002838</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华夏新锦程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>44.91</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1689,7 +5252,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1821,7 +5384,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601975-招商南油.xlsx
+++ b/数据整理/stocks/A股/上证主板/601975-招商南油.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="D2" t="n">
-        <v>15.02</v>
+        <v>9.619999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="D3" t="n">
-        <v>3.49</v>
+        <v>15.02</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D4" t="n">
-        <v>0.36</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.64</v>
       </c>
     </row>
@@ -549,6 +566,2188 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012428</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4715</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013389</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏成长先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9385</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012429</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7364</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010977</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5481</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>180003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华-道琼斯88指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4854</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4367</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3413</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010694</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3150</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013390</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏成长先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2897</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007207</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏常阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>73.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2628</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家科创主题灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2439</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001280</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.76</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2282</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014410</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏时代领航两年持有混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>70.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2008</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013627</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1933</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010611</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1920</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1732</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013626</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1636</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002269</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华大数据灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.71</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1427</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010612</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1383</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014277</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家北交所慧选两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1323</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002317</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商睿逸稳健配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>49.57</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005498</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1078</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001703</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>217002</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商安泰平衡混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>49.54</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010978</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002326</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银华聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>76.76</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012964</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>61.95</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012963</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>61.95</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014411</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏时代领航两年持有混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>70.90</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005186</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长安鑫兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011071</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华安悦一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001067</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华弘盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>21.02</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>519025</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>海富通领先成长混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009232</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华安惠混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010740</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>014278</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>万家北交所慧选两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007056</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>银华积极精选混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014364</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012111</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏华安颐混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>25.16</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007294</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>64.56</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010741</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005187</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长安鑫兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009635</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>鹏华安睿两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000432</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中银优秀企业混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>85.63</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>012112</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>鹏华安颐混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>25.16</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009634</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏华安睿两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>万家科创主题灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001380</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>鹏华弘盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>21.02</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007293</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>64.56</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009233</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>鹏华安惠混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>519949</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>64.56</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011072</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>鹏华安悦一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>014045</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>银华积极成长混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4094,7 +6293,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5252,7 +7451,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5384,7 +7583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
